--- a/HGC25/HGC25.xlsx
+++ b/HGC25/HGC25.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D3FF65-9F86-4DB0-8D28-73FDD6EF2927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +16,69 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>L(m)</t>
+  </si>
+  <si>
+    <t>最小单位1m</t>
+  </si>
+  <si>
+    <t>使用负载</t>
+  </si>
+  <si>
+    <t>(N)</t>
+  </si>
+  <si>
+    <t>整卷包装</t>
+  </si>
+  <si>
+    <t>(米/卷)</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>HGC25</t>
+  </si>
+  <si>
+    <t>1~</t>
+  </si>
+  <si>
+    <t>30米</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,10 +89,88 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -46,21 +179,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +263,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +508,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3">
+        <v>490</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3">
+        <v>780</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3">
+        <v>980</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
